--- a/全栈进阶/Node.xlsx
+++ b/全栈进阶/Node.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Node" sheetId="1" r:id="rId1"/>
     <sheet name="Koa2" sheetId="2" r:id="rId2"/>
-    <sheet name="webpack" sheetId="3" r:id="rId3"/>
+    <sheet name="EggJS" sheetId="4" r:id="rId3"/>
+    <sheet name="webpack" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,6 +19,266 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>webpack4实战</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>loaders</t>
+  </si>
+  <si>
+    <t>plugins</t>
+  </si>
+  <si>
+    <t>文件指纹</t>
+  </si>
+  <si>
+    <t>webpack4优化</t>
+  </si>
+  <si>
+    <t>dll</t>
+  </si>
+  <si>
+    <t>resolve</t>
+  </si>
+  <si>
+    <t>模块热替换</t>
+  </si>
+  <si>
+    <t>压缩</t>
+  </si>
+  <si>
+    <t>代码分割</t>
+  </si>
+  <si>
+    <t>可视化工具</t>
+  </si>
+  <si>
+    <t>webpack4 源码分析</t>
+  </si>
+  <si>
+    <t>懒加载原理</t>
+  </si>
+  <si>
+    <t>热更新原理</t>
+  </si>
+  <si>
+    <t>编写自定义 Loader</t>
+  </si>
+  <si>
+    <t>style-loader</t>
+  </si>
+  <si>
+    <t>css-loader</t>
+  </si>
+  <si>
+    <t>less-loader</t>
+  </si>
+  <si>
+    <t>编写自定义 Plugins</t>
+  </si>
+  <si>
+    <t>Nodejs核心模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventLoop和事件队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process全局对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events事件处理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonjs原理解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入字符编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffer对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs文件模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩与解压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密和签名的算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream流的原理和应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多进程与集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP和HTTP服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向和反向代理服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express &amp; Koa2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态文件服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重定向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie &amp; session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写原版的express框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写koa2框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt权限验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态文件中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程接口服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restful API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequellze持久化工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展工具方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器部署和运维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义插件和框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggjs企业级开发框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html-webpack-plugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webpack的事件机制tapable和 AST抽象语法树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写babel treeshaking插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写一款自己的webpack4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +601,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -353,12 +700,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -366,14 +771,244 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
